--- a/Anforderungsliste.xlsx
+++ b/Anforderungsliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika\Documents\GitHub\KE3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DF96EE-710E-470E-95CE-77C0E4092B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B9A8F1-F572-4B61-BB2A-75EABE2505AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Hauptmerkmal</t>
   </si>
@@ -311,9 +306,6 @@
     <t>maximal 5kg</t>
   </si>
   <si>
-    <t>maximal 200€ ohne Motor</t>
-  </si>
-  <si>
     <t>Termine</t>
   </si>
   <si>
@@ -333,9 +325,6 @@
   </si>
   <si>
     <t>8.3</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>keine extreme Überschreitung der Lebensdauer</t>
@@ -368,12 +357,36 @@
       <t>&gt;100000h nicht zulässig</t>
     </r>
   </si>
+  <si>
+    <t>mindestens 300mm zwischen Boden und Untertrum</t>
+  </si>
+  <si>
+    <t>ohne Motor</t>
+  </si>
+  <si>
+    <t>maximal 300€</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>maximal 500€</t>
+  </si>
+  <si>
+    <t>Forderung</t>
+  </si>
+  <si>
+    <t>Wunsch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -416,15 +429,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,11 +441,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -626,9 +627,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -664,9 +664,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -715,9 +712,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -999,12 +998,12 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="29" customWidth="1"/>
     <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.875" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
@@ -1013,7 +1012,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -1033,7 +1032,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1041,7 +1040,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1053,7 +1052,7 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1064,10 +1063,12 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1078,10 +1079,12 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1092,24 +1095,28 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>64</v>
+      <c r="C7" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -1120,13 +1127,15 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="15"/>
@@ -1135,7 +1144,7 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -1146,10 +1155,12 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -1160,10 +1171,12 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -1174,13 +1187,15 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="15"/>
@@ -1189,7 +1204,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -1200,10 +1215,12 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1214,13 +1231,15 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -1228,13 +1247,15 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>4</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="15"/>
@@ -1243,10 +1264,10 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -1254,13 +1275,15 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -1268,13 +1291,15 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>5</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="15"/>
@@ -1283,52 +1308,68 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>58</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="32">
+        <v>6</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>6</v>
+      <c r="A23" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="32">
         <v>7</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="15"/>
@@ -1337,8 +1378,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>60</v>
+      <c r="A26" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>16</v>
@@ -1348,28 +1389,32 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>66</v>
+      <c r="A27" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="32">
         <v>8</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>57</v>
+      <c r="B28" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="1"/>
@@ -1377,49 +1422,55 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>61</v>
+      <c r="A29" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>43760</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>62</v>
+      <c r="A30" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="19">
         <v>43781</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>63</v>
+      <c r="A31" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>43797</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="1"/>
@@ -1427,7 +1478,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="1"/>
@@ -1435,7 +1486,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="1"/>
@@ -1443,7 +1494,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="1"/>
@@ -1451,7 +1502,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="1"/>
@@ -1459,7 +1510,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="1"/>
@@ -1467,7 +1518,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="1"/>
@@ -1475,7 +1526,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="1"/>
@@ -1483,7 +1534,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="1"/>
@@ -1491,17 +1542,17 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="15"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="4"/>
